--- a/data/pca/factorExposure/factorExposure_2013-02-28.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-02-28.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.0002636097760832288</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.002052560382591247</v>
+      </c>
+      <c r="C2">
+        <v>-0.0314766773521727</v>
+      </c>
+      <c r="D2">
+        <v>0.002167998376317542</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.001856532383911185</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.00618049364049234</v>
+      </c>
+      <c r="C4">
+        <v>-0.08507366935379967</v>
+      </c>
+      <c r="D4">
+        <v>0.07879921471430119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.0006527093974824185</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01370445166425379</v>
+      </c>
+      <c r="C6">
+        <v>-0.1120489111713899</v>
+      </c>
+      <c r="D6">
+        <v>0.03238412140284957</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.001497261569526452</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.004844656613945515</v>
+      </c>
+      <c r="C7">
+        <v>-0.05704420436970124</v>
+      </c>
+      <c r="D7">
+        <v>0.0328329801405533</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>-0.0004217240298168506</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005719545487267691</v>
+      </c>
+      <c r="C8">
+        <v>-0.0392381614369772</v>
+      </c>
+      <c r="D8">
+        <v>0.04337454929214418</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.004088322832871905</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.004305175897353354</v>
+      </c>
+      <c r="C9">
+        <v>-0.07149652616485526</v>
+      </c>
+      <c r="D9">
+        <v>0.06966686207653575</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.004239954666140294</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005367483245019103</v>
+      </c>
+      <c r="C10">
+        <v>-0.05820763231037539</v>
+      </c>
+      <c r="D10">
+        <v>-0.1995951903901161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.002584420510290247</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005460324670707001</v>
+      </c>
+      <c r="C11">
+        <v>-0.08085965956334386</v>
+      </c>
+      <c r="D11">
+        <v>0.05939484667639966</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.0004814341045309687</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.00406710000760979</v>
+      </c>
+      <c r="C12">
+        <v>-0.06471532411405277</v>
+      </c>
+      <c r="D12">
+        <v>0.04399044811738551</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.0032575022594554</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.008670640535201786</v>
+      </c>
+      <c r="C13">
+        <v>-0.06699739107942911</v>
+      </c>
+      <c r="D13">
+        <v>0.06725739046652023</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.001288056197622221</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001553606514889383</v>
+      </c>
+      <c r="C14">
+        <v>-0.04696678515514621</v>
+      </c>
+      <c r="D14">
+        <v>0.007739125279796753</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.0008963270558481083</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.006001017490416285</v>
+      </c>
+      <c r="C15">
+        <v>-0.04374330147053029</v>
+      </c>
+      <c r="D15">
+        <v>0.02918433107131316</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.001173683677386189</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.00502315454957303</v>
+      </c>
+      <c r="C16">
+        <v>-0.06655633133160774</v>
+      </c>
+      <c r="D16">
+        <v>0.04468808173428174</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.0001043278317708513</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.008801321453317816</v>
+      </c>
+      <c r="C20">
+        <v>-0.06698238709543737</v>
+      </c>
+      <c r="D20">
+        <v>0.04513120659864348</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005202164554693889</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.009788224806575643</v>
+      </c>
+      <c r="C21">
+        <v>-0.02352547121767085</v>
+      </c>
+      <c r="D21">
+        <v>0.03323244570623677</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.017783943067642</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.006835541409092249</v>
+      </c>
+      <c r="C22">
+        <v>-0.09535432268337091</v>
+      </c>
+      <c r="D22">
+        <v>0.09640443102175805</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01809622758880074</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006655783460608591</v>
+      </c>
+      <c r="C23">
+        <v>-0.09614673633045484</v>
+      </c>
+      <c r="D23">
+        <v>0.09652980421535522</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.001842148186641916</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.005112694075954921</v>
+      </c>
+      <c r="C24">
+        <v>-0.07592082335653753</v>
+      </c>
+      <c r="D24">
+        <v>0.05716556480961248</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.003840268498177149</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.002828413038571163</v>
+      </c>
+      <c r="C25">
+        <v>-0.07803486142960625</v>
+      </c>
+      <c r="D25">
+        <v>0.0649170028718309</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.005560363314906601</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.00353633158678315</v>
+      </c>
+      <c r="C26">
+        <v>-0.04190982203538096</v>
+      </c>
+      <c r="D26">
+        <v>0.02416262374032168</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.004019043571635217</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.001069998659427676</v>
+      </c>
+      <c r="C28">
+        <v>-0.1054348977520015</v>
+      </c>
+      <c r="D28">
+        <v>-0.3195498903839315</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.0009584076392903885</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.003066181639801618</v>
+      </c>
+      <c r="C29">
+        <v>-0.049591009437737</v>
+      </c>
+      <c r="D29">
+        <v>0.003243914335083435</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.003229059012099593</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.009037472355343504</v>
+      </c>
+      <c r="C30">
+        <v>-0.1445063098115752</v>
+      </c>
+      <c r="D30">
+        <v>0.09998514978634758</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.001059120566393117</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.00619500186068181</v>
+      </c>
+      <c r="C31">
+        <v>-0.04568864074826749</v>
+      </c>
+      <c r="D31">
+        <v>0.03219454242048107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.0001965756508588576</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.003930939070834614</v>
+      </c>
+      <c r="C32">
+        <v>-0.04207673278923548</v>
+      </c>
+      <c r="D32">
+        <v>0.02080574868299006</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.00290644045264527</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.008169797165323067</v>
+      </c>
+      <c r="C33">
+        <v>-0.08751642476608507</v>
+      </c>
+      <c r="D33">
+        <v>0.06847412156298237</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.004207888537253664</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.003930372270463525</v>
+      </c>
+      <c r="C34">
+        <v>-0.05853155534420185</v>
+      </c>
+      <c r="D34">
+        <v>0.05056123368065108</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.002264881673084366</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.004865174731255954</v>
+      </c>
+      <c r="C35">
+        <v>-0.03997058928749267</v>
+      </c>
+      <c r="D35">
+        <v>0.01366322176932175</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.004020832283920257</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001354153809086239</v>
+      </c>
+      <c r="C36">
+        <v>-0.02477837599788481</v>
+      </c>
+      <c r="D36">
+        <v>0.02148970685268774</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.0026327239305874</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009450692638033545</v>
+      </c>
+      <c r="C38">
+        <v>-0.03395225543320467</v>
+      </c>
+      <c r="D38">
+        <v>0.01749130581030308</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01232364482262709</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.0008276944678688883</v>
+      </c>
+      <c r="C39">
+        <v>-0.1176822621011323</v>
+      </c>
+      <c r="D39">
+        <v>0.07119870216996854</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.009111287087816219</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.002141648411535089</v>
+      </c>
+      <c r="C40">
+        <v>-0.08828824482626502</v>
+      </c>
+      <c r="D40">
+        <v>0.0156474987653151</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.0002978703070259462</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007239673437495282</v>
+      </c>
+      <c r="C41">
+        <v>-0.03849759468825787</v>
+      </c>
+      <c r="D41">
+        <v>0.0345620305714596</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.003031048598393404</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.003633883234956472</v>
+      </c>
+      <c r="C43">
+        <v>-0.05217677165784673</v>
+      </c>
+      <c r="D43">
+        <v>0.02288182291790173</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.003065086046842725</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003138768302574806</v>
+      </c>
+      <c r="C44">
+        <v>-0.1115697719690672</v>
+      </c>
+      <c r="D44">
+        <v>0.06909129194183561</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.001425381237798428</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002284455784451587</v>
+      </c>
+      <c r="C46">
+        <v>-0.03423051993870312</v>
+      </c>
+      <c r="D46">
+        <v>0.03016929589064705</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.0002373961327897484</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002702996608960291</v>
+      </c>
+      <c r="C47">
+        <v>-0.03742677545192517</v>
+      </c>
+      <c r="D47">
+        <v>0.02544171255713015</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.003713039394123392</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.00641762033291239</v>
+      </c>
+      <c r="C48">
+        <v>-0.0291905941185561</v>
+      </c>
+      <c r="D48">
+        <v>0.03159504574627159</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.01326706159220536</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01494912516198942</v>
+      </c>
+      <c r="C49">
+        <v>-0.1833838296436722</v>
+      </c>
+      <c r="D49">
+        <v>0.01347309873771011</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.0006939273688145457</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003581210760150861</v>
+      </c>
+      <c r="C50">
+        <v>-0.04411212379695543</v>
+      </c>
+      <c r="D50">
+        <v>0.03583425266160728</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.0006220594028430509</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004382913838443555</v>
+      </c>
+      <c r="C51">
+        <v>-0.02581012534369842</v>
+      </c>
+      <c r="D51">
+        <v>0.02000959489288087</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.0006494567894083345</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02054055202850723</v>
+      </c>
+      <c r="C53">
+        <v>-0.1688458212113722</v>
+      </c>
+      <c r="D53">
+        <v>0.03874871852901236</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.00160930622259277</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.00866643852455209</v>
+      </c>
+      <c r="C54">
+        <v>-0.05602171582533121</v>
+      </c>
+      <c r="D54">
+        <v>0.04132783076953597</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.004240237812835748</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009457495234223337</v>
+      </c>
+      <c r="C55">
+        <v>-0.1099768178965843</v>
+      </c>
+      <c r="D55">
+        <v>0.04556532355708374</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.002912657559008316</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.01995241238215013</v>
+      </c>
+      <c r="C56">
+        <v>-0.1750410790283053</v>
+      </c>
+      <c r="D56">
+        <v>0.03667412125988584</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.007067666844359321</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01963175396162422</v>
+      </c>
+      <c r="C58">
+        <v>-0.1130652957531139</v>
+      </c>
+      <c r="D58">
+        <v>0.0471467578348685</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.006732983162914066</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.009318488578594073</v>
+      </c>
+      <c r="C59">
+        <v>-0.1600875802222781</v>
+      </c>
+      <c r="D59">
+        <v>-0.3072661226956388</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.004194818172495201</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02322140963685408</v>
+      </c>
+      <c r="C60">
+        <v>-0.2206171931292469</v>
+      </c>
+      <c r="D60">
+        <v>0.02634975029844541</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01397051014522843</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.001908388137980697</v>
+      </c>
+      <c r="C61">
+        <v>-0.0957914651903168</v>
+      </c>
+      <c r="D61">
+        <v>0.0562235922128949</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1684493458924106</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1444966070098174</v>
+      </c>
+      <c r="C62">
+        <v>-0.08971907831531273</v>
+      </c>
+      <c r="D62">
+        <v>0.05141570962594339</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.001190815057888149</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006208441310575915</v>
+      </c>
+      <c r="C63">
+        <v>-0.05674573024249198</v>
+      </c>
+      <c r="D63">
+        <v>0.02426465262010985</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.004894335831837599</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01495597480179077</v>
+      </c>
+      <c r="C64">
+        <v>-0.1042654564452711</v>
+      </c>
+      <c r="D64">
+        <v>0.05787514383467559</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.002093084374231299</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01747805118896822</v>
+      </c>
+      <c r="C65">
+        <v>-0.1201495528094564</v>
+      </c>
+      <c r="D65">
+        <v>0.01880272325494252</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.007180088591407468</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01276287999913842</v>
+      </c>
+      <c r="C66">
+        <v>-0.1610909611194397</v>
+      </c>
+      <c r="D66">
+        <v>0.1108204269871991</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.003954627935245258</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01556990858455681</v>
+      </c>
+      <c r="C67">
+        <v>-0.06506085972464427</v>
+      </c>
+      <c r="D67">
+        <v>0.02506623775785409</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.006226803366263279</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.0005593686202592588</v>
+      </c>
+      <c r="C68">
+        <v>-0.08626315083810919</v>
+      </c>
+      <c r="D68">
+        <v>-0.2535431700732645</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.002747503524539347</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.006014575461504299</v>
+      </c>
+      <c r="C69">
+        <v>-0.05027811973037469</v>
+      </c>
+      <c r="D69">
+        <v>0.03898357283865471</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>-0.0002607909115940838</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001806882009425627</v>
+      </c>
+      <c r="C70">
+        <v>-0.002466622799633098</v>
+      </c>
+      <c r="D70">
+        <v>0.001180453964806813</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.0002317041963446864</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.005806018235994564</v>
+      </c>
+      <c r="C71">
+        <v>-0.09631078927535755</v>
+      </c>
+      <c r="D71">
+        <v>-0.3016883635312079</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.004702941795120378</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01566224555128281</v>
+      </c>
+      <c r="C72">
+        <v>-0.1526437553237523</v>
+      </c>
+      <c r="D72">
+        <v>0.0214245968635369</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.01236077902393582</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.02942141744964441</v>
+      </c>
+      <c r="C73">
+        <v>-0.2750428211129627</v>
+      </c>
+      <c r="D73">
+        <v>0.04643583929387131</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.004726823187763728</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.001735741400858884</v>
+      </c>
+      <c r="C74">
+        <v>-0.1058454191293985</v>
+      </c>
+      <c r="D74">
+        <v>0.03940785211412512</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.002324281266799903</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01089464040219592</v>
+      </c>
+      <c r="C75">
+        <v>-0.129325732895164</v>
+      </c>
+      <c r="D75">
+        <v>0.02357292524901924</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.009375010992738492</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02166920476831079</v>
+      </c>
+      <c r="C76">
+        <v>-0.1504167188861836</v>
+      </c>
+      <c r="D76">
+        <v>0.06738905790347409</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.0006620391391452596</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02342972400943546</v>
+      </c>
+      <c r="C77">
+        <v>-0.1298414736715932</v>
+      </c>
+      <c r="D77">
+        <v>0.05324379571557181</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.0009873332885593558</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01444088936871024</v>
+      </c>
+      <c r="C78">
+        <v>-0.09485219796395117</v>
+      </c>
+      <c r="D78">
+        <v>0.06619877549340925</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02369941900937937</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03749818569707292</v>
+      </c>
+      <c r="C79">
+        <v>-0.1563390751361305</v>
+      </c>
+      <c r="D79">
+        <v>0.03668915271727564</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.004427343024667632</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01056880115182316</v>
+      </c>
+      <c r="C80">
+        <v>-0.04319113761700272</v>
+      </c>
+      <c r="D80">
+        <v>0.02746823822378181</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.001023464238513725</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01502292096743242</v>
+      </c>
+      <c r="C81">
+        <v>-0.127004015485434</v>
+      </c>
+      <c r="D81">
+        <v>0.0436766349014481</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.005876043122491556</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.01989761581825673</v>
+      </c>
+      <c r="C82">
+        <v>-0.1447500135133654</v>
+      </c>
+      <c r="D82">
+        <v>0.04469737827557422</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.009399514334746917</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.009981852378189294</v>
+      </c>
+      <c r="C83">
+        <v>-0.05677540008048697</v>
+      </c>
+      <c r="D83">
+        <v>0.0556952552286179</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01363048573181841</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01166464037050096</v>
+      </c>
+      <c r="C84">
+        <v>-0.03722573937791957</v>
+      </c>
+      <c r="D84">
+        <v>-0.005800991074849719</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01467653599015236</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02803006982210683</v>
+      </c>
+      <c r="C85">
+        <v>-0.1269982224569638</v>
+      </c>
+      <c r="D85">
+        <v>0.04797605219229217</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.0007456337926596267</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.005452302499626409</v>
+      </c>
+      <c r="C86">
+        <v>-0.0503225387871265</v>
+      </c>
+      <c r="D86">
+        <v>0.02218942579666068</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.004285048847260053</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01015924284052706</v>
+      </c>
+      <c r="C87">
+        <v>-0.1315355785870226</v>
+      </c>
+      <c r="D87">
+        <v>0.06422277069050021</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01289363014764352</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.002964401189081725</v>
+      </c>
+      <c r="C88">
+        <v>-0.06739152621571119</v>
+      </c>
+      <c r="D88">
+        <v>0.009417360304802736</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01438451985836889</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.001774617665380188</v>
+      </c>
+      <c r="C89">
+        <v>-0.1438982670189171</v>
+      </c>
+      <c r="D89">
+        <v>-0.3469931123256045</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.002392033117890186</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.006627384814332702</v>
+      </c>
+      <c r="C90">
+        <v>-0.1209651433122505</v>
+      </c>
+      <c r="D90">
+        <v>-0.3271846880261722</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.001302388561726693</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01040072274971574</v>
+      </c>
+      <c r="C91">
+        <v>-0.1030813564300112</v>
+      </c>
+      <c r="D91">
+        <v>0.0237656047896059</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.008535402820986122</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.000521629356657424</v>
+      </c>
+      <c r="C92">
+        <v>-0.1340159265663967</v>
+      </c>
+      <c r="D92">
+        <v>-0.3359972993407742</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.0002038553675587894</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.004576649018586581</v>
+      </c>
+      <c r="C93">
+        <v>-0.1032174009403699</v>
+      </c>
+      <c r="D93">
+        <v>-0.311510657199645</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.004189427805790481</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02241721299187706</v>
+      </c>
+      <c r="C94">
+        <v>-0.1505746312795221</v>
+      </c>
+      <c r="D94">
+        <v>0.05082057255384864</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.005370620084548456</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01633966677232803</v>
+      </c>
+      <c r="C95">
+        <v>-0.1273921303749181</v>
+      </c>
+      <c r="D95">
+        <v>0.06506790969797395</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>-0.001828819658304811</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03533902410716445</v>
+      </c>
+      <c r="C97">
+        <v>-0.2097641431276922</v>
+      </c>
+      <c r="D97">
+        <v>-0.01033582794705616</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.004190015795309071</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03632528485943135</v>
+      </c>
+      <c r="C98">
+        <v>-0.2469689639176885</v>
+      </c>
+      <c r="D98">
+        <v>0.04744427033110466</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9838157738450716</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9824588588442186</v>
+      </c>
+      <c r="C99">
+        <v>0.11394609066719</v>
+      </c>
+      <c r="D99">
+        <v>-0.02827014557147954</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.0008660527379926622</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003111388951082115</v>
+      </c>
+      <c r="C101">
+        <v>-0.04971987643080011</v>
+      </c>
+      <c r="D101">
+        <v>0.003409416607739974</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
